--- a/Selenium/Bugs/data/style/쓸쓸한.xlsx
+++ b/Selenium/Bugs/data/style/쓸쓸한.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="683">
   <si>
     <t>Title</t>
   </si>
@@ -304,7 +304,7 @@
     <t>Skinny Love</t>
   </si>
   <si>
-    <t>You Only Need You</t>
+    <t xml:space="preserve">You Only Need You </t>
   </si>
   <si>
     <t>Lost Without You</t>
@@ -391,7 +391,7 @@
     <t>우물</t>
   </si>
   <si>
-    <t>[19금]</t>
+    <t>North Face</t>
   </si>
   <si>
     <t>a sad night track</t>
@@ -410,6 +410,9 @@
   </si>
   <si>
     <t>팽팽한 줄이 끊어지듯</t>
+  </si>
+  <si>
+    <t>사이</t>
   </si>
   <si>
     <t>Wonderful (Solo)</t>
@@ -2455,10 +2458,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2469,10 +2472,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2483,10 +2486,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2497,10 +2500,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2511,10 +2514,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2525,10 +2528,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2539,10 +2542,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2553,10 +2556,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2567,10 +2570,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2581,10 +2584,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2595,10 +2598,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2609,10 +2612,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2623,10 +2626,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2637,10 +2640,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2651,10 +2654,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2665,10 +2668,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2679,10 +2682,10 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2693,10 +2696,10 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2707,10 +2710,10 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2721,10 +2724,10 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2735,10 +2738,10 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2749,10 +2752,10 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2763,10 +2766,10 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2777,10 +2780,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2791,10 +2794,10 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2805,10 +2808,10 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2819,10 +2822,10 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2833,10 +2836,10 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2847,10 +2850,10 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2861,10 +2864,10 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2875,10 +2878,10 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2889,10 +2892,10 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2903,10 +2906,10 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2917,10 +2920,10 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2931,10 +2934,10 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2945,10 +2948,10 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2959,10 +2962,10 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2973,10 +2976,10 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2987,10 +2990,10 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3001,10 +3004,10 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3015,10 +3018,10 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3029,10 +3032,10 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3043,10 +3046,10 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3057,10 +3060,10 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3071,10 +3074,10 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3085,10 +3088,10 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3099,10 +3102,10 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3113,10 +3116,10 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3127,10 +3130,10 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3141,10 +3144,10 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3155,10 +3158,10 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3169,10 +3172,10 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3183,10 +3186,10 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3197,10 +3200,10 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3211,10 +3214,10 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3225,10 +3228,10 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3239,10 +3242,10 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3253,10 +3256,10 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3267,10 +3270,10 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3281,10 +3284,10 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3295,10 +3298,10 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3309,10 +3312,10 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3323,10 +3326,10 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3337,10 +3340,10 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3351,10 +3354,10 @@
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3365,10 +3368,10 @@
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3379,10 +3382,10 @@
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3393,10 +3396,10 @@
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3407,10 +3410,10 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3421,10 +3424,10 @@
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3435,10 +3438,10 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3449,10 +3452,10 @@
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3463,10 +3466,10 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3477,10 +3480,10 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3491,10 +3494,10 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3505,10 +3508,10 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3519,10 +3522,10 @@
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3533,10 +3536,10 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3547,10 +3550,10 @@
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3561,10 +3564,10 @@
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3575,10 +3578,10 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3589,10 +3592,10 @@
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3603,10 +3606,10 @@
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3617,10 +3620,10 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3631,10 +3634,10 @@
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3645,10 +3648,10 @@
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3659,10 +3662,10 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3673,10 +3676,10 @@
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3687,10 +3690,10 @@
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3701,10 +3704,10 @@
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3715,10 +3718,10 @@
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3729,10 +3732,10 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3743,10 +3746,10 @@
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3757,10 +3760,10 @@
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3771,10 +3774,10 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3785,10 +3788,10 @@
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3799,10 +3802,10 @@
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3813,10 +3816,10 @@
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3827,10 +3830,10 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3841,10 +3844,10 @@
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3855,10 +3858,10 @@
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3869,10 +3872,10 @@
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3883,10 +3886,10 @@
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3897,10 +3900,10 @@
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3911,10 +3914,10 @@
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3925,10 +3928,10 @@
         <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3939,10 +3942,10 @@
         <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3953,10 +3956,10 @@
         <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3967,10 +3970,10 @@
         <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3981,10 +3984,10 @@
         <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3995,10 +3998,10 @@
         <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4009,10 +4012,10 @@
         <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4023,10 +4026,10 @@
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4037,10 +4040,10 @@
         <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4051,10 +4054,10 @@
         <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4065,10 +4068,10 @@
         <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4079,10 +4082,10 @@
         <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4093,10 +4096,10 @@
         <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4107,10 +4110,10 @@
         <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4121,10 +4124,10 @@
         <v>122</v>
       </c>
       <c r="C121" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4135,10 +4138,10 @@
         <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4149,10 +4152,10 @@
         <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4163,10 +4166,10 @@
         <v>125</v>
       </c>
       <c r="C124" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4177,10 +4180,10 @@
         <v>126</v>
       </c>
       <c r="C125" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4191,10 +4194,10 @@
         <v>127</v>
       </c>
       <c r="C126" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4205,10 +4208,10 @@
         <v>128</v>
       </c>
       <c r="C127" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4219,10 +4222,10 @@
         <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4233,10 +4236,10 @@
         <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4247,10 +4250,10 @@
         <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4258,13 +4261,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4272,13 +4275,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C132" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4286,13 +4289,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C133" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4300,13 +4303,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C134" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4314,13 +4317,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4328,13 +4331,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4342,13 +4345,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4356,13 +4359,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C138" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4370,13 +4373,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4384,13 +4387,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C140" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4398,13 +4401,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4412,13 +4415,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4426,13 +4429,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4440,13 +4443,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C144" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4454,13 +4457,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C145" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4468,13 +4471,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4482,13 +4485,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C147" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4496,13 +4499,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4510,13 +4513,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4524,13 +4527,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4538,13 +4541,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4552,13 +4555,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4566,13 +4569,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4580,13 +4583,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4594,13 +4597,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4608,13 +4611,13 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4622,13 +4625,13 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4636,13 +4639,13 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4650,13 +4653,13 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4664,13 +4667,13 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4678,13 +4681,13 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4692,13 +4695,13 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4706,13 +4709,13 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4720,13 +4723,13 @@
         <v>165</v>
       </c>
       <c r="B164" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4734,13 +4737,13 @@
         <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4748,13 +4751,13 @@
         <v>167</v>
       </c>
       <c r="B166" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4762,13 +4765,13 @@
         <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4776,13 +4779,13 @@
         <v>169</v>
       </c>
       <c r="B168" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4790,13 +4793,13 @@
         <v>170</v>
       </c>
       <c r="B169" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4804,13 +4807,13 @@
         <v>171</v>
       </c>
       <c r="B170" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4818,13 +4821,13 @@
         <v>172</v>
       </c>
       <c r="B171" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4832,13 +4835,13 @@
         <v>173</v>
       </c>
       <c r="B172" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4846,13 +4849,13 @@
         <v>174</v>
       </c>
       <c r="B173" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4860,13 +4863,13 @@
         <v>175</v>
       </c>
       <c r="B174" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4874,13 +4877,13 @@
         <v>176</v>
       </c>
       <c r="B175" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4888,13 +4891,13 @@
         <v>177</v>
       </c>
       <c r="B176" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4902,13 +4905,13 @@
         <v>178</v>
       </c>
       <c r="B177" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4916,13 +4919,13 @@
         <v>179</v>
       </c>
       <c r="B178" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4930,13 +4933,13 @@
         <v>180</v>
       </c>
       <c r="B179" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4944,13 +4947,13 @@
         <v>181</v>
       </c>
       <c r="B180" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4958,13 +4961,13 @@
         <v>182</v>
       </c>
       <c r="B181" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4972,13 +4975,13 @@
         <v>183</v>
       </c>
       <c r="B182" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4986,13 +4989,13 @@
         <v>184</v>
       </c>
       <c r="B183" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5000,13 +5003,13 @@
         <v>185</v>
       </c>
       <c r="B184" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -5014,13 +5017,13 @@
         <v>186</v>
       </c>
       <c r="B185" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5028,13 +5031,13 @@
         <v>187</v>
       </c>
       <c r="B186" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5042,13 +5045,13 @@
         <v>188</v>
       </c>
       <c r="B187" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5056,13 +5059,13 @@
         <v>189</v>
       </c>
       <c r="B188" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5070,13 +5073,13 @@
         <v>190</v>
       </c>
       <c r="B189" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5084,13 +5087,13 @@
         <v>191</v>
       </c>
       <c r="B190" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5098,13 +5101,13 @@
         <v>192</v>
       </c>
       <c r="B191" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5112,13 +5115,13 @@
         <v>193</v>
       </c>
       <c r="B192" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5126,13 +5129,13 @@
         <v>194</v>
       </c>
       <c r="B193" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5140,13 +5143,13 @@
         <v>195</v>
       </c>
       <c r="B194" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5154,13 +5157,13 @@
         <v>196</v>
       </c>
       <c r="B195" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5168,13 +5171,13 @@
         <v>197</v>
       </c>
       <c r="B196" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -5182,13 +5185,13 @@
         <v>198</v>
       </c>
       <c r="B197" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -5196,13 +5199,13 @@
         <v>199</v>
       </c>
       <c r="B198" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -5210,13 +5213,13 @@
         <v>200</v>
       </c>
       <c r="B199" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5224,13 +5227,13 @@
         <v>201</v>
       </c>
       <c r="B200" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -5238,13 +5241,13 @@
         <v>202</v>
       </c>
       <c r="B201" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -5252,13 +5255,13 @@
         <v>203</v>
       </c>
       <c r="B202" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -5266,13 +5269,13 @@
         <v>204</v>
       </c>
       <c r="B203" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5280,13 +5283,13 @@
         <v>205</v>
       </c>
       <c r="B204" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -5294,13 +5297,13 @@
         <v>206</v>
       </c>
       <c r="B205" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -5308,13 +5311,13 @@
         <v>207</v>
       </c>
       <c r="B206" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -5322,13 +5325,13 @@
         <v>208</v>
       </c>
       <c r="B207" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -5336,13 +5339,13 @@
         <v>209</v>
       </c>
       <c r="B208" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -5350,13 +5353,13 @@
         <v>210</v>
       </c>
       <c r="B209" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -5364,13 +5367,13 @@
         <v>211</v>
       </c>
       <c r="B210" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -5378,13 +5381,13 @@
         <v>212</v>
       </c>
       <c r="B211" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -5392,13 +5395,13 @@
         <v>213</v>
       </c>
       <c r="B212" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -5406,13 +5409,13 @@
         <v>214</v>
       </c>
       <c r="B213" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -5420,13 +5423,13 @@
         <v>215</v>
       </c>
       <c r="B214" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -5434,13 +5437,13 @@
         <v>216</v>
       </c>
       <c r="B215" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -5448,13 +5451,13 @@
         <v>217</v>
       </c>
       <c r="B216" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5462,13 +5465,13 @@
         <v>218</v>
       </c>
       <c r="B217" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5476,13 +5479,13 @@
         <v>219</v>
       </c>
       <c r="B218" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -5490,13 +5493,13 @@
         <v>220</v>
       </c>
       <c r="B219" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -5504,13 +5507,13 @@
         <v>221</v>
       </c>
       <c r="B220" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C220" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5518,13 +5521,13 @@
         <v>222</v>
       </c>
       <c r="B221" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5532,13 +5535,13 @@
         <v>223</v>
       </c>
       <c r="B222" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5546,13 +5549,13 @@
         <v>224</v>
       </c>
       <c r="B223" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5560,13 +5563,13 @@
         <v>225</v>
       </c>
       <c r="B224" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5574,13 +5577,13 @@
         <v>226</v>
       </c>
       <c r="B225" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5588,13 +5591,13 @@
         <v>227</v>
       </c>
       <c r="B226" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5602,13 +5605,13 @@
         <v>228</v>
       </c>
       <c r="B227" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C227" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5616,13 +5619,13 @@
         <v>229</v>
       </c>
       <c r="B228" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5630,13 +5633,13 @@
         <v>230</v>
       </c>
       <c r="B229" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C229" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5644,13 +5647,13 @@
         <v>231</v>
       </c>
       <c r="B230" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C230" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5658,13 +5661,13 @@
         <v>232</v>
       </c>
       <c r="B231" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C231" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5672,13 +5675,13 @@
         <v>233</v>
       </c>
       <c r="B232" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5686,13 +5689,13 @@
         <v>234</v>
       </c>
       <c r="B233" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5700,13 +5703,13 @@
         <v>235</v>
       </c>
       <c r="B234" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
   </sheetData>
